--- a/data/trans_orig/P1410-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P1410-Habitat-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>28402</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>19488</v>
+        <v>18875</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>40150</v>
+        <v>38829</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.04092375579690612</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02807971538617975</v>
+        <v>0.02719661616823829</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.05785152815380157</v>
+        <v>0.05594931431298655</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>29</v>
@@ -765,19 +765,19 @@
         <v>29840</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>20704</v>
+        <v>21012</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>42241</v>
+        <v>41886</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.0433496018572779</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.03007791461305521</v>
+        <v>0.03052448192095444</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.06136609225733508</v>
+        <v>0.06084972628627405</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>60</v>
@@ -786,19 +786,19 @@
         <v>58241</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>44293</v>
+        <v>45632</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>74602</v>
+        <v>75474</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.0421317116266795</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.03204173008297849</v>
+        <v>0.03301046396764553</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.05396716833763776</v>
+        <v>0.05459750915675624</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>665610</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>653862</v>
+        <v>655183</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>674524</v>
+        <v>675137</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9590762442030939</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9421484718461994</v>
+        <v>0.9440506856870137</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9719202846138215</v>
+        <v>0.9728033838317618</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>667</v>
@@ -836,19 +836,19 @@
         <v>658511</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>646110</v>
+        <v>646465</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>667647</v>
+        <v>667339</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9566503981427221</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9386339077426649</v>
+        <v>0.9391502737137262</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9699220853869448</v>
+        <v>0.969475518079046</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1319</v>
@@ -857,19 +857,19 @@
         <v>1324122</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1307761</v>
+        <v>1306889</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1338070</v>
+        <v>1336731</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9578682883733205</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9460328316623624</v>
+        <v>0.9454024908432437</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9679582699170215</v>
+        <v>0.9669895360323543</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>41445</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>29314</v>
+        <v>30355</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>56287</v>
+        <v>55103</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.04309117021809893</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.03047807431539297</v>
+        <v>0.03156013941501994</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.05852244120800147</v>
+        <v>0.05729126971658042</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>33</v>
@@ -982,19 +982,19 @@
         <v>37345</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>25755</v>
+        <v>27337</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>51838</v>
+        <v>52635</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.03856379781852064</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02659597423978519</v>
+        <v>0.02822891531093362</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.05352948148759712</v>
+        <v>0.05435342425799376</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>73</v>
@@ -1003,19 +1003,19 @@
         <v>78790</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>62522</v>
+        <v>62782</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>99826</v>
+        <v>97642</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.04081975183695963</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.0323914124354012</v>
+        <v>0.03252608642559834</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.05171796285072673</v>
+        <v>0.05058652000259165</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>920355</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>905513</v>
+        <v>906697</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>932486</v>
+        <v>931445</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9569088297819011</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9414775587919986</v>
+        <v>0.9427087302834195</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9695219256846069</v>
+        <v>0.9684398605849801</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>875</v>
@@ -1053,19 +1053,19 @@
         <v>931048</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>916555</v>
+        <v>915758</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>942638</v>
+        <v>941056</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9614362021814794</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9464705185124028</v>
+        <v>0.9456465757420061</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9734040257602147</v>
+        <v>0.9717710846890663</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1731</v>
@@ -1074,19 +1074,19 @@
         <v>1851403</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1830367</v>
+        <v>1832551</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1867671</v>
+        <v>1867411</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9591802481630404</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9482820371492736</v>
+        <v>0.9494134799974083</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.967608587564599</v>
+        <v>0.9674739135744017</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>36135</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>25766</v>
+        <v>25859</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>49558</v>
+        <v>50125</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.05325697467884111</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.03797514464463545</v>
+        <v>0.0381116377158337</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.07303945343711156</v>
+        <v>0.0738754557572975</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>32</v>
@@ -1199,19 +1199,19 @@
         <v>31962</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>22882</v>
+        <v>23106</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>44763</v>
+        <v>45574</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.04673842956703008</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.03346058505159662</v>
+        <v>0.03378803968847823</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.06545879581750944</v>
+        <v>0.06664371228025787</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>68</v>
@@ -1220,19 +1220,19 @@
         <v>68097</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>53116</v>
+        <v>53327</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>87148</v>
+        <v>83973</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.04998494560891393</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.03898833547681548</v>
+        <v>0.03914359589156044</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.0639691318563546</v>
+        <v>0.06163845429753436</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>642374</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>628951</v>
+        <v>628384</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>652743</v>
+        <v>652650</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9467430253211588</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9269605465628885</v>
+        <v>0.9261245442427022</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9620248553553646</v>
+        <v>0.961888362284166</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>664</v>
@@ -1270,19 +1270,19 @@
         <v>651879</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>639078</v>
+        <v>638267</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>660959</v>
+        <v>660735</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9532615704329699</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9345412041824905</v>
+        <v>0.9333562877197421</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9665394149484033</v>
+        <v>0.9662119603115218</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1269</v>
@@ -1291,19 +1291,19 @@
         <v>1294253</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1275202</v>
+        <v>1278377</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1309234</v>
+        <v>1309023</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.950015054391086</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9360308681436453</v>
+        <v>0.9383615457024655</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9610116645231843</v>
+        <v>0.9608564041084395</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>44179</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>33728</v>
+        <v>32760</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>58480</v>
+        <v>56609</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.04688821256733673</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03579611415227661</v>
+        <v>0.03476927309309009</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.06206612169647466</v>
+        <v>0.06007987404067646</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>27</v>
@@ -1416,19 +1416,19 @@
         <v>27554</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>18823</v>
+        <v>17613</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>40626</v>
+        <v>37932</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.02652984637954569</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01812349227212819</v>
+        <v>0.01695811788578978</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.03911581367481863</v>
+        <v>0.03652159442962934</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>76</v>
@@ -1437,19 +1437,19 @@
         <v>71733</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>56356</v>
+        <v>56147</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>89329</v>
+        <v>89387</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.03621369747803534</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02845039424985913</v>
+        <v>0.02834524073575741</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.0450968810416132</v>
+        <v>0.04512601219820746</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>898043</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>883742</v>
+        <v>885613</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>908494</v>
+        <v>909462</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9531117874326632</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9379338783035254</v>
+        <v>0.9399201259593235</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9642038858477234</v>
+        <v>0.9652307269069099</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>970</v>
@@ -1487,19 +1487,19 @@
         <v>1011058</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>997986</v>
+        <v>1000680</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>1019789</v>
+        <v>1020999</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9734701536204543</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9608841863251818</v>
+        <v>0.9634784055703707</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9818765077278718</v>
+        <v>0.9830418821142104</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1915</v>
@@ -1508,19 +1508,19 @@
         <v>1909101</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1891505</v>
+        <v>1891447</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1924478</v>
+        <v>1924687</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9637863025219646</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.954903118958387</v>
+        <v>0.9548739878017926</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9715496057501409</v>
+        <v>0.9716547592642426</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>150161</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>127786</v>
+        <v>127598</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>175363</v>
+        <v>175487</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.04582912735317917</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.03900027898647941</v>
+        <v>0.03894281461263312</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.05352067719743866</v>
+        <v>0.05355845896557711</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>121</v>
@@ -1633,19 +1633,19 @@
         <v>126701</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>106448</v>
+        <v>105758</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>151570</v>
+        <v>152079</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.03749427037481552</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.03150103171217517</v>
+        <v>0.03129663667719019</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.044853782547829</v>
+        <v>0.04500453011085189</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>277</v>
@@ -1654,19 +1654,19 @@
         <v>276862</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>243463</v>
+        <v>243037</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>310138</v>
+        <v>308181</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.04159742304938911</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.03657946033317552</v>
+        <v>0.0365154633036894</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.04659699817191171</v>
+        <v>0.046303080971237</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>3126382</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3101180</v>
+        <v>3101056</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3148757</v>
+        <v>3148945</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9541708726468209</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9464793228025611</v>
+        <v>0.9464415410344228</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9609997210135205</v>
+        <v>0.9610571853873662</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3176</v>
@@ -1704,19 +1704,19 @@
         <v>3252496</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3227627</v>
+        <v>3227118</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3272749</v>
+        <v>3273439</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9625057296251844</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.955146217452171</v>
+        <v>0.9549954698891485</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9684989682878248</v>
+        <v>0.9687033633228099</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6234</v>
@@ -1725,19 +1725,19 @@
         <v>6378879</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6345603</v>
+        <v>6347560</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6412278</v>
+        <v>6412704</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9584025769506109</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9534030018280881</v>
+        <v>0.953696919028763</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9634205396668245</v>
+        <v>0.9634845366963105</v>
       </c>
     </row>
     <row r="18">
@@ -2069,19 +2069,19 @@
         <v>24567</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>15428</v>
+        <v>15942</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>36301</v>
+        <v>35348</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03492285663823026</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02193199505487863</v>
+        <v>0.02266256171624395</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.05160301229254306</v>
+        <v>0.05024855733790102</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>30</v>
@@ -2090,19 +2090,19 @@
         <v>32367</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>23130</v>
+        <v>22919</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>46943</v>
+        <v>45737</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.04643475325343597</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.03318287935253737</v>
+        <v>0.03288045437797136</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.0673446986793101</v>
+        <v>0.06561559138100202</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>53</v>
@@ -2111,19 +2111,19 @@
         <v>56934</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>43543</v>
+        <v>43315</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>73683</v>
+        <v>74503</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.0406524237865696</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.03109037951166278</v>
+        <v>0.0309274773154369</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.05261108682164296</v>
+        <v>0.05319702472266392</v>
       </c>
     </row>
     <row r="5">
@@ -2140,19 +2140,19 @@
         <v>678902</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>667168</v>
+        <v>668121</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>688041</v>
+        <v>687527</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9650771433617698</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9483969877074571</v>
+        <v>0.9497514426620989</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9780680049451214</v>
+        <v>0.9773374382837557</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>620</v>
@@ -2161,19 +2161,19 @@
         <v>664683</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>650107</v>
+        <v>651313</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>673920</v>
+        <v>674131</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9535652467465641</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9326553013206899</v>
+        <v>0.934384408618998</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9668171206474626</v>
+        <v>0.9671195456220286</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1271</v>
@@ -2182,19 +2182,19 @@
         <v>1343585</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1326836</v>
+        <v>1326016</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1356976</v>
+        <v>1357204</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9593475762134304</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9473889131783569</v>
+        <v>0.9468029752773361</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9689096204883371</v>
+        <v>0.9690725226845631</v>
       </c>
     </row>
     <row r="6">
@@ -2286,19 +2286,19 @@
         <v>39407</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>28161</v>
+        <v>28523</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>53810</v>
+        <v>54424</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.03871240204617315</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02766442441079887</v>
+        <v>0.02802053460392621</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.0528615861931459</v>
+        <v>0.0534640134843708</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>41</v>
@@ -2307,19 +2307,19 @@
         <v>44174</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>31758</v>
+        <v>32144</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>57624</v>
+        <v>57400</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.04297998627216631</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.03089951458263979</v>
+        <v>0.03127453177977019</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.05606620689076684</v>
+        <v>0.05584828038272036</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>78</v>
@@ -2328,19 +2328,19 @@
         <v>83582</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>66213</v>
+        <v>67178</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>101679</v>
+        <v>105712</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.04085646129734551</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.03236631310210246</v>
+        <v>0.03283820938163325</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.04970266677767844</v>
+        <v>0.05167430157035103</v>
       </c>
     </row>
     <row r="8">
@@ -2357,19 +2357,19 @@
         <v>978540</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>964137</v>
+        <v>963523</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>989786</v>
+        <v>989424</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9612875979538269</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9471384138068543</v>
+        <v>0.9465359865156293</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9723355755892013</v>
+        <v>0.9719794653960738</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>896</v>
@@ -2378,19 +2378,19 @@
         <v>983617</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>970167</v>
+        <v>970391</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>996033</v>
+        <v>995647</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9570200137278337</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9439337931092336</v>
+        <v>0.9441517196172795</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9691004854173603</v>
+        <v>0.9687254682202298</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1795</v>
@@ -2399,19 +2399,19 @@
         <v>1962156</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1944059</v>
+        <v>1940026</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1979525</v>
+        <v>1978560</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9591435387026545</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9502973332223221</v>
+        <v>0.9483256984296492</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9676336868978976</v>
+        <v>0.9671617906183668</v>
       </c>
     </row>
     <row r="9">
@@ -2503,19 +2503,19 @@
         <v>26445</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>16903</v>
+        <v>16811</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>39942</v>
+        <v>38974</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.0349058648462443</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02231092261710818</v>
+        <v>0.02218931098278367</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.05272003507365283</v>
+        <v>0.0514427238655101</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>21</v>
@@ -2524,19 +2524,19 @@
         <v>22535</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>14054</v>
+        <v>14491</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>33916</v>
+        <v>34511</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.02899572573346464</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01808403095764032</v>
+        <v>0.01864631504614044</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.0436395279529759</v>
+        <v>0.04440545149713503</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>44</v>
@@ -2545,19 +2545,19 @@
         <v>48980</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>35405</v>
+        <v>36363</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>65047</v>
+        <v>66853</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.03191315275957925</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02306829998640469</v>
+        <v>0.02369242020277077</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.04238128572489439</v>
+        <v>0.04355840844718567</v>
       </c>
     </row>
     <row r="11">
@@ -2574,19 +2574,19 @@
         <v>731178</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>717681</v>
+        <v>718649</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>740720</v>
+        <v>740812</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9650941351537557</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9472799649263471</v>
+        <v>0.9485572761344899</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9776890773828917</v>
+        <v>0.9778106890172162</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>684</v>
@@ -2595,19 +2595,19 @@
         <v>754639</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>743258</v>
+        <v>742663</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>763120</v>
+        <v>762683</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9710042742665353</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9563604720470245</v>
+        <v>0.9555945485028647</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9819159690423597</v>
+        <v>0.9813536849538591</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1350</v>
@@ -2616,19 +2616,19 @@
         <v>1485817</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1469750</v>
+        <v>1467944</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1499392</v>
+        <v>1498434</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9680868472404207</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9576187142751051</v>
+        <v>0.9564415915528146</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9769317000135952</v>
+        <v>0.9763075797972294</v>
       </c>
     </row>
     <row r="12">
@@ -2720,19 +2720,19 @@
         <v>41868</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>30582</v>
+        <v>31348</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>57526</v>
+        <v>57485</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.04417670184620631</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03226856749729032</v>
+        <v>0.03307652722372685</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.06069834915633969</v>
+        <v>0.06065494115019347</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>48</v>
@@ -2741,19 +2741,19 @@
         <v>49702</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>37046</v>
+        <v>37759</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>64460</v>
+        <v>65797</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.04724985587934749</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.03521838830166727</v>
+        <v>0.035895536592348</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.06127992878736962</v>
+        <v>0.0625501203438214</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>88</v>
@@ -2762,19 +2762,19 @@
         <v>91570</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>73293</v>
+        <v>74036</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>111201</v>
+        <v>113182</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.04579331944304706</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03665326931921433</v>
+        <v>0.03702444267971518</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.0556102680206256</v>
+        <v>0.05660113265109698</v>
       </c>
     </row>
     <row r="14">
@@ -2791,19 +2791,19 @@
         <v>905871</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>890213</v>
+        <v>890254</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>917157</v>
+        <v>916391</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9558232981537937</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9393016508436601</v>
+        <v>0.9393450588498062</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9677314325027094</v>
+        <v>0.9669234727762731</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>955</v>
@@ -2812,19 +2812,19 @@
         <v>1002199</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>987441</v>
+        <v>986104</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>1014855</v>
+        <v>1014142</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9527501441206525</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9387200712126302</v>
+        <v>0.9374498796561784</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9647816116983327</v>
+        <v>0.964104463407652</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1825</v>
@@ -2833,19 +2833,19 @@
         <v>1908070</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1888439</v>
+        <v>1886458</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1926347</v>
+        <v>1925604</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9542066805569529</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9443897319793745</v>
+        <v>0.9433988673489031</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9633467306807857</v>
+        <v>0.9629755573202849</v>
       </c>
     </row>
     <row r="15">
@@ -2937,19 +2937,19 @@
         <v>132288</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>110682</v>
+        <v>112018</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>158999</v>
+        <v>156848</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.03860413220091996</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.03229926944250913</v>
+        <v>0.03268903234787433</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.04639888393738963</v>
+        <v>0.04577139515693036</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>140</v>
@@ -2958,19 +2958,19 @@
         <v>148779</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>125676</v>
+        <v>125692</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>171504</v>
+        <v>174394</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.04186330862912364</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.03536255506807281</v>
+        <v>0.03536719525182312</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.0482577176488562</v>
+        <v>0.04907084107366125</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>263</v>
@@ -2979,19 +2979,19 @@
         <v>281066</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>249027</v>
+        <v>249684</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>314224</v>
+        <v>317575</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.04026339950063997</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.03567362293135719</v>
+        <v>0.03576772445043486</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.04501323437503094</v>
+        <v>0.04549333223087636</v>
       </c>
     </row>
     <row r="17">
@@ -3008,19 +3008,19 @@
         <v>3294491</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3267780</v>
+        <v>3269931</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3316097</v>
+        <v>3314761</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.96139586779908</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9536011160626103</v>
+        <v>0.9542286048430697</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9677007305574908</v>
+        <v>0.9673109676521257</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3155</v>
@@ -3029,19 +3029,19 @@
         <v>3405137</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3382412</v>
+        <v>3379522</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3428240</v>
+        <v>3428224</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9581366913708763</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9517422823511439</v>
+        <v>0.9509291589263388</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9646374449319273</v>
+        <v>0.9646328047481769</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6241</v>
@@ -3050,19 +3050,19 @@
         <v>6699628</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6666470</v>
+        <v>6663119</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6731667</v>
+        <v>6731010</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.95973660049936</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9549867656249686</v>
+        <v>0.9545066677691235</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9643263770686428</v>
+        <v>0.964232275549565</v>
       </c>
     </row>
     <row r="18">
@@ -3394,19 +3394,19 @@
         <v>28461</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>19403</v>
+        <v>19708</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>39975</v>
+        <v>40850</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.04217695848875127</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02875367023567066</v>
+        <v>0.02920524890706393</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.0592396413915862</v>
+        <v>0.06053629988248492</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>38</v>
@@ -3415,19 +3415,19 @@
         <v>43264</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>30964</v>
+        <v>30628</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>57499</v>
+        <v>58712</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.06430010185283602</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.04601935877809633</v>
+        <v>0.04552086557751044</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.08545660365008292</v>
+        <v>0.08725990003356406</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>67</v>
@@ -3436,19 +3436,19 @@
         <v>71725</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>56851</v>
+        <v>57555</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>90078</v>
+        <v>90854</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.05322243404738708</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.04218548005761306</v>
+        <v>0.04270838491714919</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.06684166442293708</v>
+        <v>0.06741684194064201</v>
       </c>
     </row>
     <row r="5">
@@ -3465,19 +3465,19 @@
         <v>646339</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>634825</v>
+        <v>633950</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>655397</v>
+        <v>655092</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9578230415112488</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9407603586084139</v>
+        <v>0.9394637001175149</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9712463297643293</v>
+        <v>0.9707947510929359</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>628</v>
@@ -3486,19 +3486,19 @@
         <v>629575</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>615340</v>
+        <v>614127</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>641875</v>
+        <v>642211</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.935699898147164</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9145433963499173</v>
+        <v>0.9127400999664358</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9539806412219037</v>
+        <v>0.9544791344224893</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1251</v>
@@ -3507,19 +3507,19 @@
         <v>1275914</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1257561</v>
+        <v>1256785</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1290788</v>
+        <v>1290084</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.946777565952613</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9331583355770628</v>
+        <v>0.932583158059358</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.957814519942387</v>
+        <v>0.9572916150828508</v>
       </c>
     </row>
     <row r="6">
@@ -3611,19 +3611,19 @@
         <v>40044</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>29066</v>
+        <v>29227</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>53367</v>
+        <v>53958</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.03916557816256853</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02842821249299733</v>
+        <v>0.02858607777022835</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.05219626808581265</v>
+        <v>0.05277427179093675</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>30</v>
@@ -3632,19 +3632,19 @@
         <v>34435</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>23444</v>
+        <v>23559</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>48742</v>
+        <v>47313</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.03301778994287034</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02247922852810938</v>
+        <v>0.02258979744320964</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.04673667144334268</v>
+        <v>0.04536592503911403</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>71</v>
@@ -3653,19 +3653,19 @@
         <v>74479</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>58985</v>
+        <v>58841</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>95212</v>
+        <v>93319</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.03606120025407248</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02855924237748932</v>
+        <v>0.02848954211922113</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.04609982368343864</v>
+        <v>0.04518328559943182</v>
       </c>
     </row>
     <row r="8">
@@ -3682,19 +3682,19 @@
         <v>982387</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>969064</v>
+        <v>968473</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>993365</v>
+        <v>993204</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9608344218374315</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9478037319141874</v>
+        <v>0.9472257282090633</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9715717875070027</v>
+        <v>0.9714139222297717</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>947</v>
@@ -3703,19 +3703,19 @@
         <v>1008478</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>994171</v>
+        <v>995600</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1019469</v>
+        <v>1019354</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9669822100571297</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9532633285566574</v>
+        <v>0.954634074960886</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9775207714718906</v>
+        <v>0.9774102025567906</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1857</v>
@@ -3724,19 +3724,19 @@
         <v>1990865</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1970132</v>
+        <v>1972025</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2006359</v>
+        <v>2006503</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9639387997459276</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9539001763165613</v>
+        <v>0.9548167144005681</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9714407576225107</v>
+        <v>0.9715104578807788</v>
       </c>
     </row>
     <row r="9">
@@ -3828,19 +3828,19 @@
         <v>29394</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>19104</v>
+        <v>20026</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>41617</v>
+        <v>41290</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03869945400091041</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02515189356592835</v>
+        <v>0.02636492682672289</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.05479102380817968</v>
+        <v>0.05436114989459878</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>31</v>
@@ -3849,19 +3849,19 @@
         <v>35812</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>25256</v>
+        <v>24989</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>49785</v>
+        <v>49823</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.04561995791926007</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.03217254464166807</v>
+        <v>0.03183296433440893</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.06341918705640816</v>
+        <v>0.06346756826372842</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>59</v>
@@ -3870,19 +3870,19 @@
         <v>65206</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>50173</v>
+        <v>49884</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>81627</v>
+        <v>82526</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.04221674039144857</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.03248393437011579</v>
+        <v>0.03229654049109306</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.05284811141522996</v>
+        <v>0.05343001511100669</v>
       </c>
     </row>
     <row r="11">
@@ -3899,19 +3899,19 @@
         <v>730158</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>717935</v>
+        <v>718262</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>740448</v>
+        <v>739526</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9613005459990895</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9452089761918203</v>
+        <v>0.9456388501054013</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9748481064340717</v>
+        <v>0.9736350731732771</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>705</v>
@@ -3920,19 +3920,19 @@
         <v>749199</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>735226</v>
+        <v>735188</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>759755</v>
+        <v>760022</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9543800420807399</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9365808129435915</v>
+        <v>0.9365324317362715</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9678274553583314</v>
+        <v>0.9681670356655914</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1373</v>
@@ -3941,19 +3941,19 @@
         <v>1479357</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1462936</v>
+        <v>1462037</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1494390</v>
+        <v>1494679</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9577832596085515</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9471518885847701</v>
+        <v>0.9465699848889934</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9675160656298842</v>
+        <v>0.9677034595089073</v>
       </c>
     </row>
     <row r="12">
@@ -4045,19 +4045,19 @@
         <v>29658</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>20485</v>
+        <v>20229</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>41309</v>
+        <v>41771</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.03163288519526677</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02184862504969507</v>
+        <v>0.02157585329807984</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.04405928428033335</v>
+        <v>0.04455294640965791</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>39</v>
@@ -4066,19 +4066,19 @@
         <v>46017</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>33675</v>
+        <v>33709</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>64301</v>
+        <v>63134</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.04408706431279065</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.0322622533397136</v>
+        <v>0.03229502110980381</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.06160412045026387</v>
+        <v>0.0604859071122977</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>69</v>
@@ -4087,19 +4087,19 @@
         <v>75675</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>57789</v>
+        <v>60369</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>93768</v>
+        <v>95888</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.03819378405166216</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02916641618441812</v>
+        <v>0.03046884377658955</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.04732553416665793</v>
+        <v>0.04839530183334551</v>
       </c>
     </row>
     <row r="14">
@@ -4116,19 +4116,19 @@
         <v>907909</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>896258</v>
+        <v>895796</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>917082</v>
+        <v>917338</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9683671148047333</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9559407157196667</v>
+        <v>0.955447053590342</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9781513749503049</v>
+        <v>0.9784241467019201</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>920</v>
@@ -4137,19 +4137,19 @@
         <v>997762</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>979478</v>
+        <v>980645</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>1010104</v>
+        <v>1010070</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9559129356872094</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9383958795497361</v>
+        <v>0.9395140928877029</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9677377466602866</v>
+        <v>0.9677049788901962</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1822</v>
@@ -4158,19 +4158,19 @@
         <v>1905671</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1887578</v>
+        <v>1885458</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1923557</v>
+        <v>1920977</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9618062159483378</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.952674465833342</v>
+        <v>0.9516046981666544</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9708335838155818</v>
+        <v>0.9695311562234101</v>
       </c>
     </row>
     <row r="15">
@@ -4262,19 +4262,19 @@
         <v>127557</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>104863</v>
+        <v>107826</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>149149</v>
+        <v>151503</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.03757930392139987</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.03089336057258889</v>
+        <v>0.03176631023465</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.04394030794799772</v>
+        <v>0.04463377889262642</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>138</v>
@@ -4283,19 +4283,19 @@
         <v>159528</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>133641</v>
+        <v>135759</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>185258</v>
+        <v>188514</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.04500655351397451</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.03770325815068848</v>
+        <v>0.03830071900844918</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.05226565948280988</v>
+        <v>0.05318422671458131</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>266</v>
@@ -4304,19 +4304,19 @@
         <v>287085</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>253915</v>
+        <v>252256</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>322102</v>
+        <v>321697</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.04137330976841951</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.03659295757652977</v>
+        <v>0.03635389394962036</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.04641976603389505</v>
+        <v>0.04636137467478451</v>
       </c>
     </row>
     <row r="17">
@@ -4333,19 +4333,19 @@
         <v>3266793</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3245201</v>
+        <v>3242847</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3289487</v>
+        <v>3286524</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9624206960786001</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9560596920520015</v>
+        <v>0.9553662211073738</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9691066394274108</v>
+        <v>0.9682336897653503</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3200</v>
@@ -4354,19 +4354,19 @@
         <v>3385014</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3359284</v>
+        <v>3356028</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3410901</v>
+        <v>3408783</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9549934464860255</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9477343405171903</v>
+        <v>0.9468157732854189</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9622967418493116</v>
+        <v>0.9616992809915509</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6303</v>
@@ -4375,19 +4375,19 @@
         <v>6651807</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6616790</v>
+        <v>6617195</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6684977</v>
+        <v>6686636</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9586266902315805</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.953580233966105</v>
+        <v>0.9536386253252155</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9634070424234702</v>
+        <v>0.9636461060503798</v>
       </c>
     </row>
     <row r="18">
@@ -4719,19 +4719,19 @@
         <v>39234</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>29975</v>
+        <v>29476</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>51735</v>
+        <v>50818</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.05691674789963419</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.04348463878986871</v>
+        <v>0.04276021207244343</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.07505098795615769</v>
+        <v>0.07372047116778752</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>79</v>
@@ -4740,19 +4740,19 @@
         <v>37754</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>30194</v>
+        <v>29703</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>50237</v>
+        <v>48897</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.05152548691559562</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.04120795730289109</v>
+        <v>0.04053816226353379</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.06856263506535325</v>
+        <v>0.06673377452068313</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>136</v>
@@ -4761,19 +4761,19 @@
         <v>76988</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>63828</v>
+        <v>63525</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>92740</v>
+        <v>93626</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.05413886208029785</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.04488471258401107</v>
+        <v>0.04467142863990534</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.06521592259647108</v>
+        <v>0.06583844570204408</v>
       </c>
     </row>
     <row r="5">
@@ -4790,19 +4790,19 @@
         <v>650095</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>637594</v>
+        <v>638511</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>659354</v>
+        <v>659853</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.943083252100366</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9249490120438425</v>
+        <v>0.9262795288322127</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9565153612101314</v>
+        <v>0.9572397879275566</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1159</v>
@@ -4811,19 +4811,19 @@
         <v>694968</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>682485</v>
+        <v>683825</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>702528</v>
+        <v>703019</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.9484745130844044</v>
+        <v>0.9484745130844043</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9314373649346468</v>
+        <v>0.9332662254793168</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9587920426971089</v>
+        <v>0.9594618377364663</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1831</v>
@@ -4832,19 +4832,19 @@
         <v>1345063</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1329311</v>
+        <v>1328425</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1358223</v>
+        <v>1358526</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9458611379197021</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9347840774035289</v>
+        <v>0.9341615542979559</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9551152874159888</v>
+        <v>0.9553285713600946</v>
       </c>
     </row>
     <row r="6">
@@ -4936,19 +4936,19 @@
         <v>47650</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>36076</v>
+        <v>36284</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>61212</v>
+        <v>60599</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.04542784365964164</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.03439367536359729</v>
+        <v>0.03459159153082739</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.05835774651679262</v>
+        <v>0.05777304593667361</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>80</v>
@@ -4957,19 +4957,19 @@
         <v>47290</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>37358</v>
+        <v>37779</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>57864</v>
+        <v>57960</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.04418819673072087</v>
+        <v>0.04418819673072086</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.03490797325183688</v>
+        <v>0.03530164690135666</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.05406879651319097</v>
+        <v>0.05415840780355356</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>141</v>
@@ -4978,19 +4978,19 @@
         <v>94940</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>79749</v>
+        <v>80314</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>112012</v>
+        <v>112166</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.04480179892268804</v>
+        <v>0.04480179892268803</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.03763328076257272</v>
+        <v>0.03789985235151925</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.05285811255552872</v>
+        <v>0.05293069769915122</v>
       </c>
     </row>
     <row r="8">
@@ -5007,19 +5007,19 @@
         <v>1001267</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>987705</v>
+        <v>988318</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1012841</v>
+        <v>1012633</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9545721563403585</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9416422534832074</v>
+        <v>0.9422269540633277</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9656063246364031</v>
+        <v>0.9654084084691726</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1435</v>
@@ -5028,19 +5028,19 @@
         <v>1022897</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1012323</v>
+        <v>1012227</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1032829</v>
+        <v>1032408</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9558118032692792</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.945931203486809</v>
+        <v>0.9458415921964463</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9650920267481632</v>
+        <v>0.964698353098643</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2338</v>
@@ -5049,19 +5049,19 @@
         <v>2024164</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2007092</v>
+        <v>2006938</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2039355</v>
+        <v>2038790</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9551982010773119</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.947141887444471</v>
+        <v>0.9470693023008486</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9623667192374263</v>
+        <v>0.9621001476484806</v>
       </c>
     </row>
     <row r="9">
@@ -5153,19 +5153,19 @@
         <v>47829</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>35876</v>
+        <v>35282</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>64674</v>
+        <v>65259</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.05969599562357129</v>
+        <v>0.05969599562357128</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.04477696544601877</v>
+        <v>0.0440355479659582</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.08071943642791131</v>
+        <v>0.08144957832785621</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>42</v>
@@ -5174,19 +5174,19 @@
         <v>27840</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>20324</v>
+        <v>20203</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>37824</v>
+        <v>38290</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.03438724403615377</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.02510293883737394</v>
+        <v>0.02495364818654743</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.04671826108485452</v>
+        <v>0.04729441238447315</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>90</v>
@@ -5195,19 +5195,19 @@
         <v>75670</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>59881</v>
+        <v>61815</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>94407</v>
+        <v>95066</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.04697567189172909</v>
+        <v>0.04697567189172908</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.03717385043058186</v>
+        <v>0.03837456656787321</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.05860746908522217</v>
+        <v>0.05901673707570525</v>
       </c>
     </row>
     <row r="11">
@@ -5224,19 +5224,19 @@
         <v>753388</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>736543</v>
+        <v>735958</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>765341</v>
+        <v>765935</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9403040043764286</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9192805635720888</v>
+        <v>0.9185504216721435</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9552230345539813</v>
+        <v>0.9559644520340417</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>1001</v>
@@ -5245,19 +5245,19 @@
         <v>781772</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>771788</v>
+        <v>771322</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>789288</v>
+        <v>789409</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9656127559638462</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9532817389151454</v>
+        <v>0.9527055876155268</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9748970611626259</v>
+        <v>0.9750463518134527</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1627</v>
@@ -5266,19 +5266,19 @@
         <v>1535159</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1516422</v>
+        <v>1515763</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1550948</v>
+        <v>1549014</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9530243281082708</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9413925309147779</v>
+        <v>0.9409832629242948</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9628261495694181</v>
+        <v>0.9616254334321267</v>
       </c>
     </row>
     <row r="12">
@@ -5370,19 +5370,19 @@
         <v>56251</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>44443</v>
+        <v>44337</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>69562</v>
+        <v>70229</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.05681586186506631</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.04488900695328935</v>
+        <v>0.04478163628582314</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.07025997915999053</v>
+        <v>0.07093369066997592</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>81</v>
@@ -5391,19 +5391,19 @@
         <v>50144</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>39640</v>
+        <v>39097</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>62470</v>
+        <v>60697</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.04488243174323389</v>
+        <v>0.04488243174323388</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.03548090194086764</v>
+        <v>0.03499443631351228</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.05591534263833924</v>
+        <v>0.05432821944657651</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>159</v>
@@ -5412,19 +5412,19 @@
         <v>106395</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>90798</v>
+        <v>91148</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>122955</v>
+        <v>124824</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.05048906803654676</v>
+        <v>0.05048906803654675</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.04308741459420656</v>
+        <v>0.04325343413175727</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.05834748590958127</v>
+        <v>0.05923422135762183</v>
       </c>
     </row>
     <row r="14">
@@ -5441,19 +5441,19 @@
         <v>933811</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>920500</v>
+        <v>919833</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>945619</v>
+        <v>945725</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.9431841381349337</v>
+        <v>0.9431841381349336</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9297400208400098</v>
+        <v>0.9290663093300242</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9551109930467108</v>
+        <v>0.9552183637141769</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1478</v>
@@ -5462,19 +5462,19 @@
         <v>1067089</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1054763</v>
+        <v>1056536</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>1077593</v>
+        <v>1078136</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.9551175682567662</v>
+        <v>0.955117568256766</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9440846573616608</v>
+        <v>0.9456717805534234</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9645190980591323</v>
+        <v>0.9650055636864876</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2406</v>
@@ -5483,19 +5483,19 @@
         <v>2000900</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1984340</v>
+        <v>1982471</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>2016497</v>
+        <v>2016147</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9495109319634533</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9416525140904188</v>
+        <v>0.9407657786423781</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9569125854057935</v>
+        <v>0.9567465658682427</v>
       </c>
     </row>
     <row r="15">
@@ -5587,19 +5587,19 @@
         <v>190965</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>167357</v>
+        <v>166303</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>220078</v>
+        <v>217632</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.05410503543048416</v>
+        <v>0.05410503543048414</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.04741618525527302</v>
+        <v>0.04711764813906169</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.06235354359166959</v>
+        <v>0.06166053660621145</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>282</v>
@@ -5608,19 +5608,19 @@
         <v>163028</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>145643</v>
+        <v>143823</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>186898</v>
+        <v>184256</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.04371010781369578</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.03904907007757224</v>
+        <v>0.03856094985357014</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.05010991922348631</v>
+        <v>0.04940168977955887</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>526</v>
@@ -5629,19 +5629,19 @@
         <v>353993</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>323552</v>
+        <v>322935</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>387987</v>
+        <v>390617</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.048764213079194</v>
+        <v>0.04876421307919401</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.04457084396881287</v>
+        <v>0.04448581522979106</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.05344702660870623</v>
+        <v>0.05380932543341041</v>
       </c>
     </row>
     <row r="17">
@@ -5658,19 +5658,19 @@
         <v>3338561</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3309448</v>
+        <v>3311894</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3362169</v>
+        <v>3363223</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.9458949645695159</v>
+        <v>0.9458949645695158</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9376464564083301</v>
+        <v>0.9383394633937887</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9525838147447269</v>
+        <v>0.9528823518609382</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>5073</v>
@@ -5679,19 +5679,19 @@
         <v>3566726</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3542856</v>
+        <v>3545498</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3584111</v>
+        <v>3585931</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.956289892186304</v>
+        <v>0.9562898921863043</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.949890080776514</v>
+        <v>0.9505983102204413</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9609509299224278</v>
+        <v>0.9614390501464303</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>8202</v>
@@ -5700,19 +5700,19 @@
         <v>6905287</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6871293</v>
+        <v>6868663</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6935728</v>
+        <v>6936345</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.9512357869208061</v>
+        <v>0.9512357869208059</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9465529733912937</v>
+        <v>0.946190674566589</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9554291560311871</v>
+        <v>0.9555141847702089</v>
       </c>
     </row>
     <row r="18">
